--- a/otros/Employees.xlsx
+++ b/otros/Employees.xlsx
@@ -126,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,6 +155,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,7 +214,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,50 +250,53 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="C1" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -291,19 +305,19 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -312,19 +326,19 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -333,211 +347,220 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="1" t="n">
+        <v>415556256</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="3"/>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/otros/Employees.xlsx
+++ b/otros/Employees.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,51 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Joe Doe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Joe Doe5</t>
   </si>
   <si>
     <t xml:space="preserve">2000/02/09</t>
   </si>
   <si>
     <t xml:space="preserve">VE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joedoe@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe Doe2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correo2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe Doe3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correo3@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe Doe4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correo4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe Doe5</t>
   </si>
   <si>
     <t xml:space="preserve">Address 5</t>
@@ -122,16 +86,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -149,14 +111,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -205,28 +159,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,19 +185,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,10 +212,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -299,10 +232,9 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -320,10 +252,9 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -341,10 +272,9 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -365,7 +295,6 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -386,189 +315,8 @@
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>415556256</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" display="joedoe@gmail.com"/>
-    <hyperlink ref="F2" r:id="rId2" display="correo2@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId3" display="correo3@gmail.com"/>
-    <hyperlink ref="F4" r:id="rId4" display="correo4@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/otros/Employees.xlsx
+++ b/otros/Employees.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t xml:space="preserve">Joe Doe5</t>
   </si>
@@ -34,7 +34,10 @@
     <t xml:space="preserve">Address 5</t>
   </si>
   <si>
-    <t xml:space="preserve">correo5@gmail.com</t>
+    <t xml:space="preserve">pruebawilber@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerente general</t>
   </si>
   <si>
     <t xml:space="preserve">Joe Doe6</t>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">correo6@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">ejecutivo de venta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joe Doe7</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t xml:space="preserve">correo7@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">cargo3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joe Doe8</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t xml:space="preserve">correo8@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">cargo4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joe Doe9</t>
   </si>
   <si>
@@ -73,6 +85,9 @@
     <t xml:space="preserve">correo9@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">cargo5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joe Doe10</t>
   </si>
   <si>
@@ -80,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">correo10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargo6</t>
   </si>
 </sst>
 </file>
@@ -89,11 +107,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,12 +128,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +177,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,15 +198,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F6"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,10 +233,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -230,15 +251,18 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -250,15 +274,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -270,15 +297,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -290,15 +320,18 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -310,10 +343,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
